--- a/Eilmer/Capitelli/thermoData.xlsx
+++ b/Eilmer/Capitelli/thermoData.xlsx
@@ -5,21 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alix\Documents\school\2018\Thesis\Code\Eilmer\Capitelli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alix\Documents\school\2018\Thesis\Code\Thermo\Eilmer\Capitelli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="thermoData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,16 +30,16 @@
     <t>O+</t>
   </si>
   <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O2+</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
     <t>N+</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O2+</t>
   </si>
   <si>
     <t>N2</t>
@@ -66,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +69,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -91,16 +386,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,1201 +596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>29.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.87</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.85</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.03</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.36</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.69</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.78</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.89</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25.57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.95</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34.69</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42.28</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>53.71</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>69.88</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>91.31</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>117.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>147.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>203.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>230.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>217.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>179.9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>137.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>102.9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77.430000000000007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>59.86</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48.03</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40.08</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>34.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F877-4082-A4DB-CF548FA0EE31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="446532456"/>
-        <c:axId val="446532784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="446532456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="446532784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="446532784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="446532456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,16 +880,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1623,7 +911,7 @@
       <c r="A2">
         <v>50</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>21.96</v>
       </c>
       <c r="C2">
@@ -1640,6 +928,21 @@
       </c>
       <c r="G2">
         <v>29.42</v>
+      </c>
+      <c r="H2">
+        <v>29.1</v>
+      </c>
+      <c r="I2">
+        <v>29.1</v>
+      </c>
+      <c r="J2">
+        <v>29.1</v>
+      </c>
+      <c r="K2">
+        <v>29.1</v>
+      </c>
+      <c r="L2">
+        <v>20.79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1664,6 +967,21 @@
       <c r="G3">
         <v>24.73</v>
       </c>
+      <c r="H3">
+        <v>29.1</v>
+      </c>
+      <c r="I3">
+        <v>29.1</v>
+      </c>
+      <c r="J3">
+        <v>29.1</v>
+      </c>
+      <c r="K3">
+        <v>29.1</v>
+      </c>
+      <c r="L3">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1687,6 +1005,21 @@
       <c r="G4">
         <v>22.72</v>
       </c>
+      <c r="H4">
+        <v>29.11</v>
+      </c>
+      <c r="I4">
+        <v>29.1</v>
+      </c>
+      <c r="J4">
+        <v>29.1</v>
+      </c>
+      <c r="K4">
+        <v>29.11</v>
+      </c>
+      <c r="L4">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1710,6 +1043,21 @@
       <c r="G5">
         <v>21.9</v>
       </c>
+      <c r="H5">
+        <v>29.11</v>
+      </c>
+      <c r="I5">
+        <v>29.1</v>
+      </c>
+      <c r="J5">
+        <v>29.1</v>
+      </c>
+      <c r="K5">
+        <v>29.11</v>
+      </c>
+      <c r="L5">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1733,6 +1081,21 @@
       <c r="G6">
         <v>21.29</v>
       </c>
+      <c r="H6">
+        <v>29.12</v>
+      </c>
+      <c r="I6">
+        <v>29.14</v>
+      </c>
+      <c r="J6">
+        <v>29.18</v>
+      </c>
+      <c r="K6">
+        <v>29.13</v>
+      </c>
+      <c r="L6">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1756,6 +1119,21 @@
       <c r="G7">
         <v>21.28</v>
       </c>
+      <c r="H7">
+        <v>29.13</v>
+      </c>
+      <c r="I7">
+        <v>29.14</v>
+      </c>
+      <c r="J7">
+        <v>29.19</v>
+      </c>
+      <c r="K7">
+        <v>29.13</v>
+      </c>
+      <c r="L7">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1779,6 +1157,21 @@
       <c r="G8">
         <v>21.06</v>
       </c>
+      <c r="H8">
+        <v>29.25</v>
+      </c>
+      <c r="I8">
+        <v>29.32</v>
+      </c>
+      <c r="J8">
+        <v>29.55</v>
+      </c>
+      <c r="K8">
+        <v>29.24</v>
+      </c>
+      <c r="L8">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1802,6 +1195,21 @@
       <c r="G9">
         <v>20.96</v>
       </c>
+      <c r="H9">
+        <v>29.58</v>
+      </c>
+      <c r="I9">
+        <v>29.75</v>
+      </c>
+      <c r="J9">
+        <v>30.22</v>
+      </c>
+      <c r="K9">
+        <v>29.57</v>
+      </c>
+      <c r="L9">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1825,6 +1233,21 @@
       <c r="G10">
         <v>20.91</v>
       </c>
+      <c r="H10">
+        <v>30.1</v>
+      </c>
+      <c r="I10">
+        <v>30.38</v>
+      </c>
+      <c r="J10">
+        <v>31.04</v>
+      </c>
+      <c r="K10">
+        <v>30.09</v>
+      </c>
+      <c r="L10">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1848,6 +1271,21 @@
       <c r="G11">
         <v>20.87</v>
       </c>
+      <c r="H11">
+        <v>30.75</v>
+      </c>
+      <c r="I11">
+        <v>31.1</v>
+      </c>
+      <c r="J11">
+        <v>31.87</v>
+      </c>
+      <c r="K11">
+        <v>30.73</v>
+      </c>
+      <c r="L11">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1871,6 +1309,21 @@
       <c r="G12">
         <v>20.85</v>
       </c>
+      <c r="H12">
+        <v>32.43</v>
+      </c>
+      <c r="I12">
+        <v>31.82</v>
+      </c>
+      <c r="J12">
+        <v>32.64</v>
+      </c>
+      <c r="K12">
+        <v>31.4</v>
+      </c>
+      <c r="L12">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1894,6 +1347,21 @@
       <c r="G13">
         <v>20.84</v>
       </c>
+      <c r="H13">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="I13">
+        <v>32.5</v>
+      </c>
+      <c r="J13">
+        <v>33.31</v>
+      </c>
+      <c r="K13">
+        <v>32.06</v>
+      </c>
+      <c r="L13">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1917,6 +1385,21 @@
       <c r="G14">
         <v>20.83</v>
       </c>
+      <c r="H14">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I14">
+        <v>33.11</v>
+      </c>
+      <c r="J14">
+        <v>33.89</v>
+      </c>
+      <c r="K14">
+        <v>32.67</v>
+      </c>
+      <c r="L14">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1940,6 +1423,21 @@
       <c r="G15">
         <v>20.81</v>
       </c>
+      <c r="H15">
+        <v>35.97</v>
+      </c>
+      <c r="I15">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="J15">
+        <v>36.58</v>
+      </c>
+      <c r="K15">
+        <v>36.97</v>
+      </c>
+      <c r="L15">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1963,8 +1461,23 @@
       <c r="G16">
         <v>20.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>37.03</v>
+      </c>
+      <c r="I16">
+        <v>42.11</v>
+      </c>
+      <c r="J16">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="K16">
+        <v>37.06</v>
+      </c>
+      <c r="L16">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4000</v>
       </c>
@@ -1986,8 +1499,23 @@
       <c r="G17">
         <v>21.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>37.56</v>
+      </c>
+      <c r="I17">
+        <v>45.23</v>
+      </c>
+      <c r="J17">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="K17">
+        <v>37.6</v>
+      </c>
+      <c r="L17">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5000</v>
       </c>
@@ -2009,8 +1537,23 @@
       <c r="G18">
         <v>21.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>37.92</v>
+      </c>
+      <c r="I18">
+        <v>46.53</v>
+      </c>
+      <c r="J18">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="K18">
+        <v>37.99</v>
+      </c>
+      <c r="L18">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6000</v>
       </c>
@@ -2032,8 +1575,23 @@
       <c r="G19">
         <v>22.37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I19">
+        <v>46.93</v>
+      </c>
+      <c r="J19">
+        <v>39.01</v>
+      </c>
+      <c r="K19">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="L19">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7000</v>
       </c>
@@ -2055,8 +1613,23 @@
       <c r="G20">
         <v>22.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="I20">
+        <v>47.07</v>
+      </c>
+      <c r="J20">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="K20">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="L20">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8000</v>
       </c>
@@ -2078,8 +1651,23 @@
       <c r="G21">
         <v>23.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>40.01</v>
+      </c>
+      <c r="I21">
+        <v>47.15</v>
+      </c>
+      <c r="J21">
+        <v>41.4</v>
+      </c>
+      <c r="K21">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="L21">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9000</v>
       </c>
@@ -2101,8 +1689,23 @@
       <c r="G22">
         <v>23.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>42.01</v>
+      </c>
+      <c r="I22">
+        <v>47.14</v>
+      </c>
+      <c r="J22">
+        <v>42.86</v>
+      </c>
+      <c r="K22">
+        <v>42.17</v>
+      </c>
+      <c r="L22">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -2124,8 +1727,23 @@
       <c r="G23">
         <v>23.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>45.11</v>
+      </c>
+      <c r="I23">
+        <v>46.94</v>
+      </c>
+      <c r="J23">
+        <v>44.16</v>
+      </c>
+      <c r="K23">
+        <v>45.31</v>
+      </c>
+      <c r="L23">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11000</v>
       </c>
@@ -2147,8 +1765,23 @@
       <c r="G24">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>49.24</v>
+      </c>
+      <c r="I24">
+        <v>46.46</v>
+      </c>
+      <c r="J24">
+        <v>45.1</v>
+      </c>
+      <c r="K24">
+        <v>49.43</v>
+      </c>
+      <c r="L24">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12000</v>
       </c>
@@ -2170,8 +1803,23 @@
       <c r="G25">
         <v>23.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>53.02</v>
+      </c>
+      <c r="I25">
+        <v>45.68</v>
+      </c>
+      <c r="J25">
+        <v>45.55</v>
+      </c>
+      <c r="K25">
+        <v>54.06</v>
+      </c>
+      <c r="L25">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13000</v>
       </c>
@@ -2193,8 +1841,23 @@
       <c r="G26">
         <v>23.69</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>58.85</v>
+      </c>
+      <c r="I26">
+        <v>44.62</v>
+      </c>
+      <c r="J26">
+        <v>45.49</v>
+      </c>
+      <c r="K26">
+        <v>58.52</v>
+      </c>
+      <c r="L26">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14000</v>
       </c>
@@ -2216,8 +1879,23 @@
       <c r="G27">
         <v>23.78</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>63.02</v>
+      </c>
+      <c r="I27">
+        <v>43.37</v>
+      </c>
+      <c r="J27">
+        <v>44.98</v>
+      </c>
+      <c r="K27">
+        <v>62.13</v>
+      </c>
+      <c r="L27">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15000</v>
       </c>
@@ -2239,8 +1917,23 @@
       <c r="G28">
         <v>23.89</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>41.98</v>
+      </c>
+      <c r="J28">
+        <v>41.11</v>
+      </c>
+      <c r="K28">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="L28">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16000</v>
       </c>
@@ -2262,8 +1955,23 @@
       <c r="G29">
         <v>24.04</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="I29">
+        <v>40.54</v>
+      </c>
+      <c r="J29">
+        <v>42.99</v>
+      </c>
+      <c r="K29">
+        <v>65.16</v>
+      </c>
+      <c r="L29">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17000</v>
       </c>
@@ -2285,8 +1993,23 @@
       <c r="G30">
         <v>24.28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="I30">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="J30">
+        <v>41.72</v>
+      </c>
+      <c r="K30">
+        <v>64.5</v>
+      </c>
+      <c r="L30">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18000</v>
       </c>
@@ -2308,8 +2031,23 @@
       <c r="G31">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>66.22</v>
+      </c>
+      <c r="I31">
+        <v>37.69</v>
+      </c>
+      <c r="J31">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="K31">
+        <v>62.72</v>
+      </c>
+      <c r="L31">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19000</v>
       </c>
@@ -2331,8 +2069,23 @@
       <c r="G32">
         <v>25.57</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>64</v>
+      </c>
+      <c r="I32">
+        <v>36.36</v>
+      </c>
+      <c r="J32">
+        <v>39.03</v>
+      </c>
+      <c r="K32">
+        <v>60.16</v>
+      </c>
+      <c r="L32">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20000</v>
       </c>
@@ -2354,8 +2107,23 @@
       <c r="G33">
         <v>27.14</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>61.18</v>
+      </c>
+      <c r="I33">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="J33">
+        <v>37.71</v>
+      </c>
+      <c r="K33">
+        <v>57.17</v>
+      </c>
+      <c r="L33">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>21000</v>
       </c>
@@ -2377,8 +2145,23 @@
       <c r="G34">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>58.05</v>
+      </c>
+      <c r="I34">
+        <v>33.97</v>
+      </c>
+      <c r="J34">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="K34">
+        <v>54.01</v>
+      </c>
+      <c r="L34">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>22000</v>
       </c>
@@ -2400,8 +2183,23 @@
       <c r="G35">
         <v>34.69</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>54.84</v>
+      </c>
+      <c r="I35">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="J35">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="K35">
+        <v>50.87</v>
+      </c>
+      <c r="L35">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23000</v>
       </c>
@@ -2423,8 +2221,23 @@
       <c r="G36">
         <v>42.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>51.72</v>
+      </c>
+      <c r="I36">
+        <v>31.95</v>
+      </c>
+      <c r="J36">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="K36">
+        <v>47.89</v>
+      </c>
+      <c r="L36">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24000</v>
       </c>
@@ -2446,8 +2259,23 @@
       <c r="G37">
         <v>53.71</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>48.78</v>
+      </c>
+      <c r="I37">
+        <v>31.07</v>
+      </c>
+      <c r="J37">
+        <v>33.15</v>
+      </c>
+      <c r="K37">
+        <v>45.13</v>
+      </c>
+      <c r="L37">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25000</v>
       </c>
@@ -2469,8 +2297,23 @@
       <c r="G38">
         <v>69.88</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>46.06</v>
+      </c>
+      <c r="I38">
+        <v>30.27</v>
+      </c>
+      <c r="J38">
+        <v>32.22</v>
+      </c>
+      <c r="K38">
+        <v>42.63</v>
+      </c>
+      <c r="L38">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26000</v>
       </c>
@@ -2492,8 +2335,23 @@
       <c r="G39">
         <v>91.31</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>43.6</v>
+      </c>
+      <c r="I39">
+        <v>29.55</v>
+      </c>
+      <c r="J39">
+        <v>31.36</v>
+      </c>
+      <c r="K39">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="L39">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>27000</v>
       </c>
@@ -2515,8 +2373,23 @@
       <c r="G40">
         <v>117.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>41.38</v>
+      </c>
+      <c r="I40">
+        <v>28.9</v>
+      </c>
+      <c r="J40">
+        <v>30.59</v>
+      </c>
+      <c r="K40">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="L40">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28000</v>
       </c>
@@ -2538,8 +2411,23 @@
       <c r="G41">
         <v>147.19999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="I41">
+        <v>28.31</v>
+      </c>
+      <c r="J41">
+        <v>29.88</v>
+      </c>
+      <c r="K41">
+        <v>36.6</v>
+      </c>
+      <c r="L41">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>29000</v>
       </c>
@@ -2561,8 +2449,23 @@
       <c r="G42">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>37.65</v>
+      </c>
+      <c r="I42">
+        <v>27.77</v>
+      </c>
+      <c r="J42">
+        <v>29.23</v>
+      </c>
+      <c r="K42">
+        <v>35.03</v>
+      </c>
+      <c r="L42">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>30000</v>
       </c>
@@ -2584,8 +2487,23 @@
       <c r="G43">
         <v>203.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="I43">
+        <v>27.28</v>
+      </c>
+      <c r="J43">
+        <v>28.64</v>
+      </c>
+      <c r="K43">
+        <v>33.65</v>
+      </c>
+      <c r="L43">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>32000</v>
       </c>
@@ -2607,8 +2525,23 @@
       <c r="G44">
         <v>230.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="I44">
+        <v>26.44</v>
+      </c>
+      <c r="J44">
+        <v>27.62</v>
+      </c>
+      <c r="K44">
+        <v>31.36</v>
+      </c>
+      <c r="L44">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>34000</v>
       </c>
@@ -2630,8 +2563,23 @@
       <c r="G45">
         <v>217.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>31.43</v>
+      </c>
+      <c r="I45">
+        <v>25.74</v>
+      </c>
+      <c r="J45">
+        <v>26.77</v>
+      </c>
+      <c r="K45">
+        <v>29.57</v>
+      </c>
+      <c r="L45">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>36000</v>
       </c>
@@ -2653,8 +2601,23 @@
       <c r="G46">
         <v>179.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>29.8</v>
+      </c>
+      <c r="I46">
+        <v>25.15</v>
+      </c>
+      <c r="J46">
+        <v>26.05</v>
+      </c>
+      <c r="K46">
+        <v>28.17</v>
+      </c>
+      <c r="L46">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>38000</v>
       </c>
@@ -2676,8 +2639,23 @@
       <c r="G47">
         <v>137.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>28.5</v>
+      </c>
+      <c r="I47">
+        <v>24.66</v>
+      </c>
+      <c r="J47">
+        <v>25.45</v>
+      </c>
+      <c r="K47">
+        <v>27.05</v>
+      </c>
+      <c r="L47">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40000</v>
       </c>
@@ -2699,8 +2677,23 @@
       <c r="G48">
         <v>102.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>27.45</v>
+      </c>
+      <c r="I48">
+        <v>24.24</v>
+      </c>
+      <c r="J48">
+        <v>24.95</v>
+      </c>
+      <c r="K48">
+        <v>26.16</v>
+      </c>
+      <c r="L48">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42000</v>
       </c>
@@ -2722,8 +2715,23 @@
       <c r="G49">
         <v>77.430000000000007</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>26.59</v>
+      </c>
+      <c r="I49">
+        <v>23.89</v>
+      </c>
+      <c r="J49">
+        <v>24.51</v>
+      </c>
+      <c r="K49">
+        <v>25.43</v>
+      </c>
+      <c r="L49">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44000</v>
       </c>
@@ -2745,8 +2753,23 @@
       <c r="G50">
         <v>59.86</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>25.88</v>
+      </c>
+      <c r="I50">
+        <v>23.58</v>
+      </c>
+      <c r="J50">
+        <v>24.14</v>
+      </c>
+      <c r="K50">
+        <v>24.83</v>
+      </c>
+      <c r="L50">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46000</v>
       </c>
@@ -2768,8 +2791,23 @@
       <c r="G51">
         <v>48.03</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>25.29</v>
+      </c>
+      <c r="I51">
+        <v>23.32</v>
+      </c>
+      <c r="J51">
+        <v>23.82</v>
+      </c>
+      <c r="K51">
+        <v>24.34</v>
+      </c>
+      <c r="L51">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48000</v>
       </c>
@@ -2791,8 +2829,23 @@
       <c r="G52">
         <v>40.08</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>24.8</v>
+      </c>
+      <c r="I52">
+        <v>23.09</v>
+      </c>
+      <c r="J52">
+        <v>23.54</v>
+      </c>
+      <c r="K52">
+        <v>23.93</v>
+      </c>
+      <c r="L52">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50000</v>
       </c>
@@ -2814,9 +2867,23 @@
       <c r="G53">
         <v>34.68</v>
       </c>
+      <c r="H53">
+        <v>24.38</v>
+      </c>
+      <c r="I53">
+        <v>22.89</v>
+      </c>
+      <c r="J53">
+        <v>23.3</v>
+      </c>
+      <c r="K53">
+        <v>24.58</v>
+      </c>
+      <c r="L53">
+        <v>20.79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>